--- a/datamining/final_data/sum1966_nltk.xlsx
+++ b/datamining/final_data/sum1966_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HX2"/>
+  <dimension ref="A1:GT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,1100 +492,950 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>accomplished</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>accomplished</t>
+          <t>behalf</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>child</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>behalf</t>
+          <t>communities</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>communities</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>public</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>relations</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>our</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>study</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>relations</t>
+          <t>development</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>early</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>language</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>note</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>continue</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>education</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>older</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>persons</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>able</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>educationally</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>continue</t>
+          <t>prospective</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>providing</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>older</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>persons</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>comparative</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>practices</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>educationally</t>
+          <t>preceptions</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>principals</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>prospective</t>
+          <t>recommended</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>providing</t>
+          <t>students</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>superior</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>utilization</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>comparative</t>
+          <t>children</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>practices</t>
+          <t>musically</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>preceptions</t>
+          <t>school</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>principals</t>
+          <t>college</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>college-age</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>daughter</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>superior</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>stay</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>utilization</t>
+          <t>writes</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>musically</t>
+          <t>correspond</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>friends</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>college-age</t>
+          <t>old</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>daughter</t>
+          <t>''</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>her</t>
+          <t>``</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>boo-boos</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>should</t>
+          <t>explain</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>stay</t>
+          <t>nagc</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>why</t>
+          <t>tries</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>writes</t>
+          <t>available</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>consulting</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>correspond</t>
+          <t>book</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>editor</t>
+          <t>journal</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>friends</t>
+          <t>reviews</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>''</t>
+          <t>retrospect</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>``</t>
+          <t>cities</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>boo-boos</t>
+          <t>cultures</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>explain</t>
+          <t>greater</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>nagc</t>
+          <t>london</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>thirteen-year-olds</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>tries</t>
+          <t>twin</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>two</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>consulting</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>journal</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>reviews</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>identifies</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>retrospect</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>cities</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>cultures</t>
+          <t>special</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>greater</t>
+          <t>childhood</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>london</t>
+          <t>fate</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>thirteen-year-olds</t>
+          <t>intuition</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>twin</t>
+          <t>quarterly</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>use</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>usa</t>
+          <t>...</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>psychological</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>continuing</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>climate</t>
+          <t>matter</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>herself</t>
+          <t>pressurizing</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>identifies</t>
+          <t>'67</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>were</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>expo</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>good</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>childhood</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>fate</t>
+          <t>awards</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>intuition</t>
+          <t>best</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>britannica</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>cash</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>quarterly</t>
+          <t>encyclopedia</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>library</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>offer</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>concern</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>continuing</t>
+          <t>patterns</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>matter</t>
+          <t>seniors</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>pressurizing</t>
+          <t>divergency</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>'67</t>
+          <t>heterogeneous</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>afford</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>perception</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>preadolescents</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>expo</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>prodigies</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>actualization</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>preparation</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>awards</t>
+          <t>suggested</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>britannica</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>discontinuities</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>method</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>encyclopedia</t>
+          <t>montessori</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>library</t>
+          <t>preschooler</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>offer</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>creatively</t>
+          <t>disturbed</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>patterns</t>
+          <t>emotionally</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>seniors</t>
+          <t>family</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>divergency</t>
+          <t>management</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>heterogeneous</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>annual</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>perception</t>
+          <t>director</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>preadolescents</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>report</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>prodigies</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>24-31</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>actualization</t>
+          <t>community</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>preparation</t>
+          <t>held</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>suggested</t>
+          <t>national</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>observance</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>curiosity</t>
+          <t>october</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>discontinuities</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>week</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>montessori</t>
+          <t>13-16</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>preschooler</t>
+          <t>april</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>adolescents</t>
+          <t>association</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>board</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>inn</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>disturbed</t>
+          <t>lamplighter</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>emotionally</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>motor</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>nebraska</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>notes</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>annual</t>
+          <t>omaha</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>director</t>
+          <t>thirteenth</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>conscience</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>back</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>comes</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>24-31</t>
+          <t>gillespie</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>home</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>held</t>
+          <t>master</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>tunesmith</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>observance</t>
+          <t>exceptional</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>october</t>
+          <t>include</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>one</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>week</t>
+          <t>term</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>13-16</t>
+          <t>governor</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>april</t>
+          <t>thoughts</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>association</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>board</t>
+          <t>basis</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>inn</t>
+          <t>experimental</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>lamplighter</t>
+          <t>grouping</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>motivations</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>accelerate</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>nebraska</t>
+          <t>acceleration</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>omaha</t>
+          <t>view</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>thirteenth</t>
+          <t>assessing</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>conscience</t>
+          <t>human</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>comes</t>
+          <t>f.</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>gillespie</t>
+          <t>george</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>haven</t>
+          <t>sculptor</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>yostel</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>master</t>
+          <t>message</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>tunesmith</t>
+          <t>scholastically</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>exceptional</t>
+          <t>body</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>chemistry</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>limiting</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>term</t>
+          <t>world</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
-        <is>
-          <t>which</t>
-        </is>
-      </c>
-      <c r="GU1" s="1" t="inlineStr">
-        <is>
-          <t>giftedness</t>
-        </is>
-      </c>
-      <c r="GV1" s="1" t="inlineStr">
-        <is>
-          <t>governor</t>
-        </is>
-      </c>
-      <c r="GW1" s="1" t="inlineStr">
-        <is>
-          <t>thoughts</t>
-        </is>
-      </c>
-      <c r="GX1" s="1" t="inlineStr">
-        <is>
-          <t>abilities</t>
-        </is>
-      </c>
-      <c r="GY1" s="1" t="inlineStr">
-        <is>
-          <t>basis</t>
-        </is>
-      </c>
-      <c r="GZ1" s="1" t="inlineStr">
-        <is>
-          <t>experimental</t>
-        </is>
-      </c>
-      <c r="HA1" s="1" t="inlineStr">
-        <is>
-          <t>grouping</t>
-        </is>
-      </c>
-      <c r="HB1" s="1" t="inlineStr">
-        <is>
-          <t>motivations</t>
-        </is>
-      </c>
-      <c r="HC1" s="1" t="inlineStr">
-        <is>
-          <t>accelerated</t>
-        </is>
-      </c>
-      <c r="HD1" s="1" t="inlineStr">
-        <is>
-          <t>acceleration</t>
-        </is>
-      </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>adults</t>
-        </is>
-      </c>
-      <c r="HF1" s="1" t="inlineStr">
-        <is>
-          <t>view</t>
-        </is>
-      </c>
-      <c r="HG1" s="1" t="inlineStr">
-        <is>
-          <t>assessing</t>
-        </is>
-      </c>
-      <c r="HH1" s="1" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="HI1" s="1" t="inlineStr">
-        <is>
-          <t>potential</t>
-        </is>
-      </c>
-      <c r="HJ1" s="1" t="inlineStr">
-        <is>
-          <t>f.</t>
-        </is>
-      </c>
-      <c r="HK1" s="1" t="inlineStr">
-        <is>
-          <t>george</t>
-        </is>
-      </c>
-      <c r="HL1" s="1" t="inlineStr">
-        <is>
-          <t>sculptor</t>
-        </is>
-      </c>
-      <c r="HM1" s="1" t="inlineStr">
-        <is>
-          <t>yostel</t>
-        </is>
-      </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>message</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>scholastically</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="HS1" s="1" t="inlineStr">
-        <is>
-          <t>chemistry</t>
-        </is>
-      </c>
-      <c r="HT1" s="1" t="inlineStr">
-        <is>
-          <t>limiting</t>
-        </is>
-      </c>
-      <c r="HU1" s="1" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="HV1" s="1" t="inlineStr">
-        <is>
-          <t>being</t>
-        </is>
-      </c>
-      <c r="HW1" s="1" t="inlineStr">
-        <is>
-          <t>world</t>
-        </is>
-      </c>
-      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>non-existence</t>
         </is>
@@ -1602,7 +1452,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="E2" t="n">
         <v>1.17</v>
@@ -1611,682 +1461,592 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="O2" t="n">
-        <v>0.49</v>
+        <v>1.99</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Q2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BP2" t="n">
         <v>1.74</v>
       </c>
-      <c r="R2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="BQ2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="CG2" t="n">
         <v>0.8400000000000001</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AQ2" t="n">
+      <c r="CH2" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="CM2" t="n">
         <v>0.71</v>
       </c>
-      <c r="AR2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.6599999999999999</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.31</v>
-      </c>
       <c r="CN2" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="CS2" t="n">
         <v>0.45</v>
       </c>
       <c r="CT2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="DI2" t="n">
         <v>0.45</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DJ2" t="n">
         <v>0.45</v>
       </c>
-      <c r="CV2" t="n">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="DD2" t="n">
+      <c r="DK2" t="n">
         <v>0.45</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DL2" t="n">
         <v>0.45</v>
       </c>
-      <c r="DF2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="DI2" t="n">
+      <c r="DM2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" t="n">
         <v>0.42</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="FL2" t="n">
         <v>0.42</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="FM2" t="n">
         <v>0.42</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="FN2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="FO2" t="n">
         <v>0.42</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="FP2" t="n">
         <v>0.42</v>
       </c>
-      <c r="DN2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.6100000000000001</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EP2" t="n">
+      <c r="FQ2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GN2" t="n">
         <v>0.54</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="GO2" t="n">
         <v>0.54</v>
       </c>
-      <c r="ER2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.39</v>
-      </c>
       <c r="GP2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.4</v>
+        <v>0.77</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
